--- a/結構柱明細表.xlsx
+++ b/結構柱明細表.xlsx
@@ -5,42 +5,260 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Cywt-90\檔案庫\人員資料備存\偉豪\2024土水比賽\家瑋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Cywt-90\檔案庫\人員資料備存\芠昕\BIM競賽\檔案交付\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="結構柱明細表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="結構柱明細表" localSheetId="0">結構柱明細表!$M$11:$Q$142</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="結構柱明細表" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="950" sourceFile="\\Cywt-90\檔案庫\人員資料備存\偉豪\2024土水比賽\家瑋\結構柱明細表.csv">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="81">
-  <si>
-    <t xml:space="preserve">結構柱明細表							</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="85">
+  <si>
+    <t>結構柱明細表</t>
+  </si>
+  <si>
+    <t>族群與類型</t>
+  </si>
+  <si>
+    <t>基準樓層</t>
+  </si>
+  <si>
+    <t>結構材料</t>
+  </si>
+  <si>
+    <t>體積</t>
+  </si>
+  <si>
+    <t>數量</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C1</t>
+  </si>
+  <si>
+    <t>FL1</t>
+  </si>
+  <si>
+    <t>混凝土 - 現場澆注混凝土</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C2</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C3</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C4</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C5</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C6</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C7</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C8</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C9</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C10</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C11</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C12</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C13</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 1FL-C14</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C1</t>
+  </si>
+  <si>
+    <t>FL2</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C2</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C3</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C4</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C5</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C6</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C7</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C8</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C9</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C10</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C11</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C12</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C13</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 2FL-C14</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C2</t>
+  </si>
+  <si>
+    <t>FL3</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C3</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C4</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C5</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C7</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C8</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C9</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C10</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C11</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C12</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C13</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C14</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: 3FL-C16</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C2</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C3</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C4</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C5</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C6</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C7</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C8</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C9</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C10</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C11</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C12</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C13</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C14</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: B1-C15</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: R1F-C2</t>
+  </si>
+  <si>
+    <t>R1F</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: R1F-C3</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: R1F-C4</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: R1F-C5</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: R1F-C7</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: R1F-C8</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: R1F-C9</t>
+  </si>
+  <si>
+    <t>混凝土-矩形-柱: R1F-C17</t>
+  </si>
+  <si>
+    <t>異形柱C12: C12</t>
+  </si>
+  <si>
+    <t>&lt;變化&gt;</t>
+  </si>
+  <si>
+    <t>異形柱C15: B1-C15</t>
+  </si>
+  <si>
+    <t>LS</t>
   </si>
   <si>
     <t>欄1</t>
@@ -56,231 +274,6 @@
   </si>
   <si>
     <t>欄5</t>
-  </si>
-  <si>
-    <t>族群與類型</t>
-  </si>
-  <si>
-    <t>基準樓層</t>
-  </si>
-  <si>
-    <t>結構材料</t>
-  </si>
-  <si>
-    <t>體積</t>
-  </si>
-  <si>
-    <t>數量</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>混凝土 - 現場澆注混凝土</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C2</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C3</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C4</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C5</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C6</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C7</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C8</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C9</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C10</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C11</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C12</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C13</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C14</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: B1-C15</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C1</t>
-  </si>
-  <si>
-    <t>FL1</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C2</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C3</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C4</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C5</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C6</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C7</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C8</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C9</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C10</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C11</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C12</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C13</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 1FL-C14</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C1</t>
-  </si>
-  <si>
-    <t>FL2</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C2</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C3</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C7</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C6</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C4</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C5</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C8</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C9</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C10</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C11</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C12</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C13</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 2FL-C14</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C2</t>
-  </si>
-  <si>
-    <t>FL3</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C3</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C4</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C5</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C7</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C8</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C9</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C16</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C10</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C12</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C13</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C14</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: 3FL-C11</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: R1F-C2</t>
-  </si>
-  <si>
-    <t>R1F</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: R1F-C3</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: R1F-C4</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: R1F-C5</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: R1F-C7</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: R1F-C8</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: R1F-C9</t>
-  </si>
-  <si>
-    <t>混凝土-矩形-柱: R1F-C17</t>
   </si>
 </sst>
 </file>
@@ -935,18 +928,37 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="結構柱明細表" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A3:E133" totalsRowShown="0">
-  <autoFilter ref="A3:E133"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A3:E78" totalsRowCount="1">
+  <autoFilter ref="A3:E78">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="混凝土-矩形-柱: 1FL-C1"/>
+        <filter val="混凝土-矩形-柱: 1FL-C10"/>
+        <filter val="混凝土-矩形-柱: 1FL-C13"/>
+        <filter val="混凝土-矩形-柱: 1FL-C14"/>
+        <filter val="混凝土-矩形-柱: 1FL-C4"/>
+        <filter val="混凝土-矩形-柱: 1FL-C5"/>
+        <filter val="混凝土-矩形-柱: 1FL-C6"/>
+        <filter val="混凝土-矩形-柱: 1FL-C8"/>
+        <filter val="混凝土-矩形-柱: 1FL-C9"/>
+        <filter val="混凝土-矩形-柱: B1-C1"/>
+        <filter val="混凝土-矩形-柱: B1-C10"/>
+        <filter val="混凝土-矩形-柱: B1-C13"/>
+        <filter val="混凝土-矩形-柱: B1-C14"/>
+        <filter val="混凝土-矩形-柱: B1-C4"/>
+        <filter val="混凝土-矩形-柱: B1-C5"/>
+        <filter val="混凝土-矩形-柱: B1-C6"/>
+        <filter val="混凝土-矩形-柱: B1-C8"/>
+        <filter val="混凝土-矩形-柱: B1-C9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="欄1"/>
     <tableColumn id="2" name="欄2"/>
     <tableColumn id="3" name="欄3"/>
-    <tableColumn id="4" name="欄4"/>
+    <tableColumn id="4" name="欄4" totalsRowFunction="sum"/>
     <tableColumn id="5" name="欄5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1216,22 +1228,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q142"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" customWidth="1"/>
-    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,47 +1250,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>3.34</v>
@@ -1290,15 +1300,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2.97</v>
@@ -1307,52 +1317,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>2.97</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>2.34</v>
+        <v>3.34</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1360,33 +1370,33 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>2.21</v>
+        <v>3.34</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1394,30 +1404,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>3.34</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>3.34</v>
@@ -1428,30 +1438,30 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>2.97</v>
@@ -1460,49 +1470,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>2.97</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>3.34</v>
@@ -1511,83 +1521,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>3.34</v>
+        <v>2.23</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>3.34</v>
+        <v>2.23</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>2.97</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>2.97</v>
@@ -1596,15 +1606,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>2.97</v>
@@ -1613,358 +1623,358 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D26">
+        <v>2.23</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
         <v>2.97</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>3.34</v>
-      </c>
       <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>1.58</v>
+        <v>2.23</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>1.58</v>
+        <v>2.23</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>1.58</v>
+        <v>2.97</v>
       </c>
       <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>1.58</v>
+        <v>2.97</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>1.58</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>1.04</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>1.58</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>1.58</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>1.58</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>1.58</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>1.58</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>3.34</v>
+        <v>1.44</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1972,30 +1982,30 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>2.97</v>
@@ -2004,52 +2014,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>2.97</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>3.34</v>
+        <v>2.21</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2057,13 +2067,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D52">
         <v>3.34</v>
@@ -2074,13 +2084,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>3.34</v>
@@ -2091,13 +2101,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D54">
         <v>3.34</v>
@@ -2106,15 +2116,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>2.97</v>
@@ -2125,33 +2135,33 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D57">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2159,81 +2169,81 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D58">
+        <v>3.34</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
         <v>2.97</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59">
-        <v>3.34</v>
-      </c>
       <c r="E59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D61">
         <v>3.34</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D62">
         <v>3.34</v>
@@ -2242,1220 +2252,272 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>1.48</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>1.55</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>1.58</v>
+      </c>
+      <c r="E65">
         <v>13</v>
       </c>
-      <c r="D63">
-        <v>2.97</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64">
-        <v>2.97</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65">
-        <v>2.97</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>2.97</v>
+        <v>1.43</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>3.34</v>
+        <v>1.9</v>
       </c>
       <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>3.34</v>
+        <v>1.9</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>2.97</v>
+        <v>1.43</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>2.23</v>
+        <v>1.8</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D72">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>2.23</v>
+        <v>0.45</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>2.23</v>
+        <v>2.46</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>2.97</v>
+        <v>3.26</v>
       </c>
       <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D77">
-        <v>2.97</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
       <c r="D78">
-        <v>2.97</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79">
-        <v>2.97</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80">
-        <v>2.97</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81">
-        <v>2.97</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82">
-        <v>2.97</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83">
-        <v>2.97</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84">
-        <v>2.23</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85">
-        <v>2.23</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86">
-        <v>2.23</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87">
-        <v>2.23</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88">
-        <v>2.97</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89">
-        <v>2.97</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90">
-        <v>2.97</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91">
-        <v>2.23</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92">
-        <v>2.23</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93">
-        <v>2.23</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94">
-        <v>2.23</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" t="s">
-        <v>59</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95">
-        <v>1.68</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96">
-        <v>1.68</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>60</v>
-      </c>
-      <c r="B97" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97">
-        <v>1.68</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98">
-        <v>1.68</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>61</v>
-      </c>
-      <c r="B99" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>61</v>
-      </c>
-      <c r="B100" t="s">
-        <v>59</v>
-      </c>
-      <c r="C100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" t="s">
-        <v>59</v>
-      </c>
-      <c r="C102" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102">
-        <v>1.68</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>60</v>
-      </c>
-      <c r="B103" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103">
-        <v>1.68</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>60</v>
-      </c>
-      <c r="B104" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104">
-        <v>1.68</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>60</v>
-      </c>
-      <c r="B105" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105">
-        <v>1.68</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" t="s">
-        <v>59</v>
-      </c>
-      <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>64</v>
-      </c>
-      <c r="B107" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109">
-        <v>1.44</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>67</v>
-      </c>
-      <c r="B110" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>68</v>
-      </c>
-      <c r="B111" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111">
-        <v>1.68</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>68</v>
-      </c>
-      <c r="B112" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112">
-        <v>1.68</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>68</v>
-      </c>
-      <c r="B113" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113">
-        <v>1.68</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>69</v>
-      </c>
-      <c r="B114" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B115" t="s">
-        <v>59</v>
-      </c>
-      <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>70</v>
-      </c>
-      <c r="B116" t="s">
-        <v>59</v>
-      </c>
-      <c r="C116" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>71</v>
-      </c>
-      <c r="B117" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117">
-        <v>1.68</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>72</v>
-      </c>
-      <c r="B118" t="s">
-        <v>73</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118">
-        <v>1.43</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-      <c r="B119" t="s">
-        <v>73</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119">
-        <v>1.43</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120">
-        <v>1.43</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B121" t="s">
-        <v>73</v>
-      </c>
-      <c r="C121" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121">
-        <v>1.43</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>75</v>
-      </c>
-      <c r="B122" t="s">
-        <v>73</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122">
-        <v>1.9</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>75</v>
-      </c>
-      <c r="B123" t="s">
-        <v>73</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123">
-        <v>1.9</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124">
-        <v>1.9</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>74</v>
-      </c>
-      <c r="B125" t="s">
-        <v>73</v>
-      </c>
-      <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125">
-        <v>1.43</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>74</v>
-      </c>
-      <c r="B126" t="s">
-        <v>73</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126">
-        <v>1.43</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>74</v>
-      </c>
-      <c r="B127" t="s">
-        <v>73</v>
-      </c>
-      <c r="C127" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127">
-        <v>1.43</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>77</v>
-      </c>
-      <c r="B128" t="s">
-        <v>73</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128">
-        <v>1.43</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>78</v>
-      </c>
-      <c r="B129" t="s">
-        <v>73</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129">
-        <v>1.9</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>78</v>
-      </c>
-      <c r="B130" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130">
-        <v>1.9</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>79</v>
-      </c>
-      <c r="B131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131">
-        <v>1.9</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>80</v>
-      </c>
-      <c r="B132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132">
-        <v>0.69</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D133">
-        <f>SUBTOTAL(109,D4:D132)</f>
-        <v>306.54999999999995</v>
-      </c>
-      <c r="E133">
-        <f>SUBTOTAL(109,E4:E132)</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P142">
-        <v>306.55</v>
-      </c>
-      <c r="Q142">
-        <v>127</v>
+        <f>SUBTOTAL(109,表格1[欄4])</f>
+        <v>62.330000000000027</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>